--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842975A5-B938-4260-BFD8-CE97F33D5CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0310FB7A-6467-4973-9C75-D5E2AD1C7458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>00011020000001</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0310FB7A-6467-4973-9C75-D5E2AD1C7458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D97760B1-501A-4524-8B0D-4939243FDBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="930" yWindow="-15075" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>ticker_fs</t>
+  </si>
+  <si>
+    <t>00011030000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macro level data, includes ALL jobs aggregated by Refinitiv's RIC </t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by Factset's primary ticker</t>
   </si>
 </sst>
 </file>
@@ -186,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D0F5C41-3C0A-4BF2-A8B8-BCD26D1337EC}" name="Table2" displayName="Table2" ref="A2:F5" totalsRowShown="0">
-  <autoFilter ref="A2:F5" xr:uid="{94F35026-ED15-4AEF-97CB-7CFC229F5DEA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D0F5C41-3C0A-4BF2-A8B8-BCD26D1337EC}" name="Table2" displayName="Table2" ref="A2:F6" totalsRowShown="0">
+  <autoFilter ref="A2:F6" xr:uid="{94F35026-ED15-4AEF-97CB-7CFC229F5DEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -504,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93792632-C064-44F2-B1BC-1D76A803F60E}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +617,27 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D97760B1-501A-4524-8B0D-4939243FDBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3F04A6-CEC4-4971-935F-5AF4802105BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-15075" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="585" yWindow="-15420" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>macro level data, includes ALL jobs aggregated by Factset's primary ticker</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>00011100000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by country</t>
   </si>
 </sst>
 </file>
@@ -519,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93792632-C064-44F2-B1BC-1D76A803F60E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +652,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3F04A6-CEC4-4971-935F-5AF4802105BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0B5E9-3642-4FD7-B048-A8C19F871B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="-15420" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>macro level data, includes ALL jobs aggregated by country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>00011110000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by state</t>
   </si>
 </sst>
 </file>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93792632-C064-44F2-B1BC-1D76A803F60E}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +681,26 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0B5E9-3642-4FD7-B048-A8C19F871B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7EFC6D-93DC-4C43-81D1-C1EA4618B3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>macro level data, includes ALL jobs aggregated by state</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>00011130000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by zip code</t>
   </si>
 </sst>
 </file>
@@ -540,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93792632-C064-44F2-B1BC-1D76A803F60E}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -699,6 +714,26 @@
       </c>
       <c r="F8" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7EFC6D-93DC-4C43-81D1-C1EA4618B3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412940BC-377A-4A65-8EDD-18B9AD4FE923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -144,13 +144,55 @@
   </si>
   <si>
     <t>macro level data, includes ALL jobs aggregated by zip code</t>
+  </si>
+  <si>
+    <t>SOC Major</t>
+  </si>
+  <si>
+    <t>00011700000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by the highest level SOC Major code</t>
+  </si>
+  <si>
+    <t>SOC Minor</t>
+  </si>
+  <si>
+    <t>00011710000001</t>
+  </si>
+  <si>
+    <t>00011720000001</t>
+  </si>
+  <si>
+    <t>00011730000001</t>
+  </si>
+  <si>
+    <t>SOC Broad</t>
+  </si>
+  <si>
+    <t>SOC Detailed</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by the 2nd highest level SOC Minor code</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by the 3rd highest level SOC Broad code</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by the 4th highest level SOC Detailed code</t>
+  </si>
+  <si>
+    <t>Standard Occupational Classification (SOC) System (bls.gov)</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +203,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,19 +253,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -237,22 +290,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D0F5C41-3C0A-4BF2-A8B8-BCD26D1337EC}" name="Table2" displayName="Table2" ref="A2:F6" totalsRowShown="0">
-  <autoFilter ref="A2:F6" xr:uid="{94F35026-ED15-4AEF-97CB-7CFC229F5DEA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DC7F395-8B9E-4C2B-A170-6197A9DB0962}" name="Table1" displayName="Table1" ref="A2:G13" totalsRowShown="0">
+  <autoFilter ref="A2:G13" xr:uid="{3B33461B-F9F8-4380-B5B4-909A8B63B9A6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7DD44904-46D8-432B-821C-4D179FE7929B}" name="BaseCode"/>
-    <tableColumn id="2" xr3:uid="{F8F4D54A-D581-42BF-805F-34126EB50EBE}" name="BaseName"/>
-    <tableColumn id="3" xr3:uid="{08C9D239-96E1-4A65-8F38-A1FBA688E11E}" name="SubCode"/>
-    <tableColumn id="4" xr3:uid="{FF92DDC6-D650-4EFE-9BC7-7F672B388E91}" name="SubAggregate"/>
-    <tableColumn id="5" xr3:uid="{376EAE0C-AEBF-48C3-A56C-AFEFB9D0F2F6}" name="Code" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{312FD6F9-37BE-4335-AC8E-870624202C42}" name="Description"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BC873791-FB7A-4B94-8DBA-20EA8D442094}" name="BaseCode"/>
+    <tableColumn id="2" xr3:uid="{1D11CFCB-6114-49D7-9BC2-B94FAFEA0E88}" name="BaseName"/>
+    <tableColumn id="3" xr3:uid="{7D71BC4B-315A-45F0-BF32-A800EA0EC471}" name="SubCode"/>
+    <tableColumn id="4" xr3:uid="{A16D8C60-870C-4F7F-B96B-0238456DAF8A}" name="SubAggregate"/>
+    <tableColumn id="5" xr3:uid="{B28E96B3-BE47-48DE-A0A7-452E690DED65}" name="Code" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A45301F2-EF38-4E3C-888C-7E19BAE0686C}" name="Description"/>
+    <tableColumn id="7" xr3:uid="{6FAD4B37-4A39-4138-8230-FDC332367E66}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,28 +610,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93792632-C064-44F2-B1BC-1D76A803F60E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="65.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -595,88 +653,91 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -696,7 +757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -716,7 +777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,16 +795,114 @@
       </c>
       <c r="F9" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1" display="https://www.bls.gov/soc/" xr:uid="{74B9AC03-7087-4471-B9DE-E0C48D7A0B28}"/>
+    <hyperlink ref="G11" r:id="rId2" display="https://www.bls.gov/soc/" xr:uid="{94261E2E-9473-40C0-B620-C26973DDC4D4}"/>
+    <hyperlink ref="G12" r:id="rId3" display="https://www.bls.gov/soc/" xr:uid="{6395ADB5-2DB7-4409-9B43-FA7DA6458E7D}"/>
+    <hyperlink ref="G13" r:id="rId4" display="https://www.bls.gov/soc/" xr:uid="{0DFD491C-AD66-40B9-8C7D-BEB0F642BC36}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412940BC-377A-4A65-8EDD-18B9AD4FE923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5EC531-B6F4-4493-B0CA-40FA1309B1EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="6300" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -131,21 +131,9 @@
     <t>macro level data, includes ALL jobs aggregated by state</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>00011130000001</t>
-  </si>
-  <si>
-    <t>macro level data, includes ALL jobs aggregated by zip code</t>
-  </si>
-  <si>
     <t>SOC Major</t>
   </si>
   <si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
 </sst>
 </file>
@@ -264,8 +264,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -290,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DC7F395-8B9E-4C2B-A170-6197A9DB0962}" name="Table1" displayName="Table1" ref="A2:G13" totalsRowShown="0">
-  <autoFilter ref="A2:G13" xr:uid="{3B33461B-F9F8-4380-B5B4-909A8B63B9A6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DC7F395-8B9E-4C2B-A170-6197A9DB0962}" name="Table1" displayName="Table1" ref="A2:G12" totalsRowShown="0">
+  <autoFilter ref="A2:G12" xr:uid="{3B33461B-F9F8-4380-B5B4-909A8B63B9A6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93792632-C064-44F2-B1BC-1D76A803F60E}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -628,11 +628,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -785,16 +785,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -805,19 +808,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,19 +831,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,42 +854,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -894,10 +874,10 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" display="https://www.bls.gov/soc/" xr:uid="{74B9AC03-7087-4471-B9DE-E0C48D7A0B28}"/>
-    <hyperlink ref="G11" r:id="rId2" display="https://www.bls.gov/soc/" xr:uid="{94261E2E-9473-40C0-B620-C26973DDC4D4}"/>
-    <hyperlink ref="G12" r:id="rId3" display="https://www.bls.gov/soc/" xr:uid="{6395ADB5-2DB7-4409-9B43-FA7DA6458E7D}"/>
-    <hyperlink ref="G13" r:id="rId4" display="https://www.bls.gov/soc/" xr:uid="{0DFD491C-AD66-40B9-8C7D-BEB0F642BC36}"/>
+    <hyperlink ref="G9" r:id="rId1" display="https://www.bls.gov/soc/" xr:uid="{74B9AC03-7087-4471-B9DE-E0C48D7A0B28}"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://www.bls.gov/soc/" xr:uid="{94261E2E-9473-40C0-B620-C26973DDC4D4}"/>
+    <hyperlink ref="G11" r:id="rId3" display="https://www.bls.gov/soc/" xr:uid="{6395ADB5-2DB7-4409-9B43-FA7DA6458E7D}"/>
+    <hyperlink ref="G12" r:id="rId4" display="https://www.bls.gov/soc/" xr:uid="{0DFD491C-AD66-40B9-8C7D-BEB0F642BC36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5EC531-B6F4-4493-B0CA-40FA1309B1EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AA10E-45EE-4E50-9BA2-6E5010FC6B53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="2925" yWindow="-13080" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>73</t>
+  </si>
+  <si>
+    <t>Requires Refinitiv RIC license</t>
   </si>
 </sst>
 </file>
@@ -716,6 +719,9 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AA10E-45EE-4E50-9BA2-6E5010FC6B53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7D308B-8E48-4911-8BD3-D3F6BDBAC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="-13080" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>00011030000001</t>
   </si>
   <si>
-    <t xml:space="preserve">macro level data, includes ALL jobs aggregated by Refinitiv's RIC </t>
-  </si>
-  <si>
     <t>macro level data, includes ALL jobs aggregated by Factset's primary ticker</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Requires Refinitiv RIC license</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by Refinitiv's PermID mappings.</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,10 +717,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -771,16 +771,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,19 +791,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,19 +814,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,19 +837,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,19 +860,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7D308B-8E48-4911-8BD3-D3F6BDBAC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DAE46-C441-4728-A334-ED689A41B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="3510" yWindow="-13905" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -189,6 +189,87 @@
   </si>
   <si>
     <t>macro level data, includes ALL jobs aggregated by Refinitiv's PermID mappings.</t>
+  </si>
+  <si>
+    <t>SEDOL</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>00011040000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by SEDOL</t>
+  </si>
+  <si>
+    <t>Requires SEDOL license from LSE</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>00011050000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by ISIN</t>
+  </si>
+  <si>
+    <t>Requires ISIN license from ISIN</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>CUSIP</t>
+  </si>
+  <si>
+    <t>00011060000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by CUSIP</t>
+  </si>
+  <si>
+    <t>Requires CUSIP license from CUSIP Global Services</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>PermID</t>
+  </si>
+  <si>
+    <t>00011080000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by Refinitiv OpenPermID</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>00011120000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by city</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>00011130000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by zip code</t>
   </si>
 </sst>
 </file>
@@ -293,8 +374,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DC7F395-8B9E-4C2B-A170-6197A9DB0962}" name="Table1" displayName="Table1" ref="A2:G12" totalsRowShown="0">
-  <autoFilter ref="A2:G12" xr:uid="{3B33461B-F9F8-4380-B5B4-909A8B63B9A6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DC7F395-8B9E-4C2B-A170-6197A9DB0962}" name="Table1" displayName="Table1" ref="A2:G18" totalsRowShown="0">
+  <autoFilter ref="A2:G18" xr:uid="{3B33461B-F9F8-4380-B5B4-909A8B63B9A6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -613,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93792632-C064-44F2-B1BC-1D76A803F60E}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,89 +825,92 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,19 +921,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,18 +941,147 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -880,10 +1090,10 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" display="https://www.bls.gov/soc/" xr:uid="{74B9AC03-7087-4471-B9DE-E0C48D7A0B28}"/>
-    <hyperlink ref="G10" r:id="rId2" display="https://www.bls.gov/soc/" xr:uid="{94261E2E-9473-40C0-B620-C26973DDC4D4}"/>
-    <hyperlink ref="G11" r:id="rId3" display="https://www.bls.gov/soc/" xr:uid="{6395ADB5-2DB7-4409-9B43-FA7DA6458E7D}"/>
-    <hyperlink ref="G12" r:id="rId4" display="https://www.bls.gov/soc/" xr:uid="{0DFD491C-AD66-40B9-8C7D-BEB0F642BC36}"/>
+    <hyperlink ref="G15" r:id="rId1" display="https://www.bls.gov/soc/" xr:uid="{74B9AC03-7087-4471-B9DE-E0C48D7A0B28}"/>
+    <hyperlink ref="G16" r:id="rId2" display="https://www.bls.gov/soc/" xr:uid="{94261E2E-9473-40C0-B620-C26973DDC4D4}"/>
+    <hyperlink ref="G17" r:id="rId3" display="https://www.bls.gov/soc/" xr:uid="{6395ADB5-2DB7-4409-9B43-FA7DA6458E7D}"/>
+    <hyperlink ref="G18" r:id="rId4" display="https://www.bls.gov/soc/" xr:uid="{0DFD491C-AD66-40B9-8C7D-BEB0F642BC36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>

--- a/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
+++ b/LU_Enhanced_Aggregate_Analytics_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Code\Python\LinkUp_Enhanced_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DAE46-C441-4728-A334-ED689A41B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E808A0A-B4D5-4C10-83FB-2D08FACCBA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="-13905" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
+    <workbookView xWindow="5805" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{7BDEBC4C-7440-4DC4-AD82-DC8F494D62F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAnalyticsFiles" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Aggregate Analytics Codes</t>
   </si>
@@ -270,6 +270,69 @@
   </si>
   <si>
     <t>macro level data, includes ALL jobs aggregated by zip code</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>NAICS Sector</t>
+  </si>
+  <si>
+    <t>NAICS &amp; SIC Identification Tools | NAICS Association</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>NAICS Sub Sector</t>
+  </si>
+  <si>
+    <t>NAICS Industry Group</t>
+  </si>
+  <si>
+    <t>NAICS Industry</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>NAICS Sub Industry</t>
+  </si>
+  <si>
+    <t>00011300000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by NAICS Highest level Sector</t>
+  </si>
+  <si>
+    <t>00011310000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by NAICS Sub-Sector</t>
+  </si>
+  <si>
+    <t>00011320000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by NAICS Industry Group</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by NAICS Sub Industry</t>
+  </si>
+  <si>
+    <t>00011330000001</t>
+  </si>
+  <si>
+    <t>macro level data, includes ALL jobs aggregated by NAICS Industry</t>
+  </si>
+  <si>
+    <t>00011340000001</t>
   </si>
 </sst>
 </file>
@@ -374,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DC7F395-8B9E-4C2B-A170-6197A9DB0962}" name="Table1" displayName="Table1" ref="A2:G18" totalsRowShown="0">
-  <autoFilter ref="A2:G18" xr:uid="{3B33461B-F9F8-4380-B5B4-909A8B63B9A6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DC7F395-8B9E-4C2B-A170-6197A9DB0962}" name="Table1" displayName="Table1" ref="A2:G23" totalsRowShown="0">
+  <autoFilter ref="A2:G23" xr:uid="{3B33461B-F9F8-4380-B5B4-909A8B63B9A6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -694,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93792632-C064-44F2-B1BC-1D76A803F60E}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +768,7 @@
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
@@ -1001,19 +1064,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1024,19 +1087,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1047,19 +1110,19 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,18 +1133,133 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F23" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1090,15 +1268,20 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G15" r:id="rId1" display="https://www.bls.gov/soc/" xr:uid="{74B9AC03-7087-4471-B9DE-E0C48D7A0B28}"/>
-    <hyperlink ref="G16" r:id="rId2" display="https://www.bls.gov/soc/" xr:uid="{94261E2E-9473-40C0-B620-C26973DDC4D4}"/>
-    <hyperlink ref="G17" r:id="rId3" display="https://www.bls.gov/soc/" xr:uid="{6395ADB5-2DB7-4409-9B43-FA7DA6458E7D}"/>
-    <hyperlink ref="G18" r:id="rId4" display="https://www.bls.gov/soc/" xr:uid="{0DFD491C-AD66-40B9-8C7D-BEB0F642BC36}"/>
+    <hyperlink ref="G20" r:id="rId1" display="https://www.bls.gov/soc/" xr:uid="{74B9AC03-7087-4471-B9DE-E0C48D7A0B28}"/>
+    <hyperlink ref="G21" r:id="rId2" display="https://www.bls.gov/soc/" xr:uid="{94261E2E-9473-40C0-B620-C26973DDC4D4}"/>
+    <hyperlink ref="G22" r:id="rId3" display="https://www.bls.gov/soc/" xr:uid="{6395ADB5-2DB7-4409-9B43-FA7DA6458E7D}"/>
+    <hyperlink ref="G23" r:id="rId4" display="https://www.bls.gov/soc/" xr:uid="{0DFD491C-AD66-40B9-8C7D-BEB0F642BC36}"/>
+    <hyperlink ref="G15" r:id="rId5" display="https://www.naics.com/search/" xr:uid="{53072EBA-A033-4FA9-BF42-718938EC461B}"/>
+    <hyperlink ref="G16" r:id="rId6" display="https://www.naics.com/search/" xr:uid="{D186F16D-3AB0-4CC5-84BA-D7A3029859FD}"/>
+    <hyperlink ref="G17" r:id="rId7" display="https://www.naics.com/search/" xr:uid="{09E83930-B006-410D-B866-A4611F0056A4}"/>
+    <hyperlink ref="G18" r:id="rId8" display="https://www.naics.com/search/" xr:uid="{AF9E79B2-50DF-49D8-A128-5D03350F4D63}"/>
+    <hyperlink ref="G19" r:id="rId9" display="https://www.naics.com/search/" xr:uid="{BE112E92-B8F1-4FC8-8269-711D02907169}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>